--- a/pag190ejer6.xlsx
+++ b/pag190ejer6.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C0E4CC-739B-43D1-9282-8D3D1B2A7F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{52D888AB-B80E-4A71-B039-CA95CC32FE2A}">
+    <comment ref="O16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="0" shapeId="0" xr:uid="{7F00D2E4-5344-4224-93BB-C99A616D14A1}">
+    <comment ref="O17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{87BA950B-EF2E-444B-9F2D-62188AEF6D10}">
+    <comment ref="O18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve">pasivo </t>
   </si>
@@ -188,16 +187,22 @@
   </si>
   <si>
     <t>ratio de rentabilidad</t>
+  </si>
+  <si>
+    <t>total neto</t>
+  </si>
+  <si>
+    <t>total(p+n)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,19 +250,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -319,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,27 +356,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,24 +390,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,14 +565,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -621,17 +590,17 @@
     <col min="21" max="21" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N1" s="3" t="s">
+    <row r="1" spans="1:18">
+      <c r="N1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="O1" s="5"/>
+      <c r="Q1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="N2" t="s">
         <v>2</v>
       </c>
@@ -645,7 +614,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="N3" t="s">
         <v>4</v>
       </c>
@@ -655,11 +624,11 @@
       <c r="Q3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="N4" t="s">
         <v>24</v>
       </c>
@@ -669,11 +638,11 @@
       <c r="Q4" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="N5" t="s">
         <v>10</v>
       </c>
@@ -687,7 +656,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -701,10 +670,14 @@
         <v>25000</v>
       </c>
       <c r="Q6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="R6" s="1">
+        <f>SUM(R2:R5)</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -718,13 +691,10 @@
         <v>1000</v>
       </c>
       <c r="Q7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -738,13 +708,13 @@
         <v>1000</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="R8" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -759,13 +729,13 @@
         <v>45000</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R9" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -773,22 +743,28 @@
         <v>1500</v>
       </c>
       <c r="Q10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R10" s="1">
-        <f>SUM(R2:R9)</f>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="1">
+        <f>SUM(R8:R10)</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -798,8 +774,15 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="1">
+        <f>R6+R11</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -807,7 +790,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -822,7 +805,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -837,7 +820,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -849,30 +832,30 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="14:15">
       <c r="N17" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="4">
         <f>O14/O15</f>
         <v>1.1875</v>
       </c>
     </row>
-    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="14:15">
       <c r="N18" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="5">
-        <f>R10/(R10+R7+R8+R9)</f>
-        <v>0.65217391304347827</v>
-      </c>
-    </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="4">
+        <f>R6/(R6+R8+R9+R10)</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15">
       <c r="N19" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="5">
-        <f>R9/(R8+R7)</f>
+      <c r="O19" s="4">
+        <f>R10/(R9+R8)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -888,12 +871,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
